--- a/data/case1/20/V2_1.xlsx
+++ b/data/case1/20/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999433071962</v>
+        <v>0.99999999005975926</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99438135653611348</v>
+        <v>0.9952069477150558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97609053224312614</v>
+        <v>0.97889967873030748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9667363441322181</v>
+        <v>0.97271255584430361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95780483700065466</v>
+        <v>0.96705421883929332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93653201079399584</v>
+        <v>0.95513517803678538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93703494201136572</v>
+        <v>0.95371257868841397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9364979729584606</v>
+        <v>0.95272132128839671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94058160787573208</v>
+        <v>0.95483878971552172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94566108717733943</v>
+        <v>0.95794113594119357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94641869119904798</v>
+        <v>0.95856702585381603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94671466154563899</v>
+        <v>0.96001606027942277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94967729891417119</v>
+        <v>0.96884229233182306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95169909593634539</v>
+        <v>0.97360902998503884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95502487818358539</v>
+        <v>0.97101826090086796</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95960153004681015</v>
+        <v>0.968512258872122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.97074861119208466</v>
+        <v>0.96480484336172723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.97676014741692274</v>
+        <v>0.96369597431367793</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99217335230559511</v>
+        <v>0.99241918101576765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98505626971580584</v>
+        <v>0.96950304950522836</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98365778098602652</v>
+        <v>0.96663326554822493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98239327760837047</v>
+        <v>0.96292016323852936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97176768908871958</v>
+        <v>0.97186456699314083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96484857009171554</v>
+        <v>0.95884335699345624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95839157752971582</v>
+        <v>0.95238631847498922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93287585447111665</v>
+        <v>0.95343032062075184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92802845250345456</v>
+        <v>0.95130390812995658</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90655280234014379</v>
+        <v>0.94436403292867621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89128036121146903</v>
+        <v>0.93989797923571083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8847097218950315</v>
+        <v>0.93802360984412669</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.87705569984486065</v>
+        <v>0.94464376563813746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87537635576927619</v>
+        <v>0.9426166117015764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.87485634487919439</v>
+        <v>0.94195139284440588</v>
       </c>
     </row>
   </sheetData>
